--- a/sys_ADVENTURE.xlsx
+++ b/sys_ADVENTURE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>User ID</t>
   </si>
@@ -241,25 +241,28 @@
     <t>Adventure</t>
   </si>
   <si>
-    <t>ufo</t>
-  </si>
-  <si>
-    <t>buf</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>a-1</t>
-  </si>
-  <si>
-    <t>toe</t>
-  </si>
-  <si>
-    <t>stu</t>
-  </si>
-  <si>
-    <t>whi</t>
+    <t>ufot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buf </t>
+  </si>
+  <si>
+    <t>mapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
+  </si>
+  <si>
+    <t>toei</t>
+  </si>
+  <si>
+    <t>stud</t>
+  </si>
+  <si>
+    <t>whit</t>
+  </si>
+  <si>
+    <t>ghli</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1096,7 +1099,7 @@
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1110,7 +1113,7 @@
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1124,7 +1127,7 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/sys_ADVENTURE.xlsx
+++ b/sys_ADVENTURE.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>tanjirokamado</t>

--- a/sys_ADVENTURE.xlsx
+++ b/sys_ADVENTURE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>User ID</t>
   </si>
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>role code</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>tanjirokamado</t>
@@ -241,28 +241,25 @@
     <t>Adventure</t>
   </si>
   <si>
-    <t>ufot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buf </t>
-  </si>
-  <si>
-    <t>mapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a-1 </t>
-  </si>
-  <si>
-    <t>toei</t>
-  </si>
-  <si>
-    <t>stud</t>
-  </si>
-  <si>
-    <t>whit</t>
-  </si>
-  <si>
-    <t>ghli</t>
+    <t>ufo</t>
+  </si>
+  <si>
+    <t>buf</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>a-1</t>
+  </si>
+  <si>
+    <t>toe</t>
+  </si>
+  <si>
+    <t>stu</t>
+  </si>
+  <si>
+    <t>whi</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1082,7 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1099,7 +1096,7 @@
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1113,7 +1110,7 @@
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1127,7 +1124,7 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/sys_ADVENTURE.xlsx
+++ b/sys_ADVENTURE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>User ID</t>
   </si>
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>tanjirokamado</t>
@@ -241,25 +241,28 @@
     <t>Adventure</t>
   </si>
   <si>
-    <t>ufo</t>
-  </si>
-  <si>
-    <t>buf</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>a-1</t>
-  </si>
-  <si>
-    <t>toe</t>
-  </si>
-  <si>
-    <t>stu</t>
-  </si>
-  <si>
-    <t>whi</t>
+    <t>ufot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buf </t>
+  </si>
+  <si>
+    <t>mapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
+  </si>
+  <si>
+    <t>toei</t>
+  </si>
+  <si>
+    <t>stud</t>
+  </si>
+  <si>
+    <t>whit</t>
+  </si>
+  <si>
+    <t>ghli</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1096,7 +1099,7 @@
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1110,7 +1113,7 @@
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1124,7 +1127,7 @@
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
